--- a/文書/テーブル設計.xlsx
+++ b/文書/テーブル設計.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbko-sato\GoogleMap\文書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2506A-B101-4A4F-BF8A-B38FFE0737C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE38F1-AE90-4EB7-A60A-04021032A562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24645" yWindow="-15600" windowWidth="19875" windowHeight="15600" xr2:uid="{DB81A569-E455-4291-9536-C95F9AB8AEF4}"/>
+    <workbookView xWindow="2420" yWindow="2870" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{DB81A569-E455-4291-9536-C95F9AB8AEF4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル設計" sheetId="1" r:id="rId1"/>
+    <sheet name="HotPepperAPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,16 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="434">
   <si>
     <t>・users</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SERIAL</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -63,10 +60,6 @@
   </si>
   <si>
     <t>sex</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>age</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -91,41 +84,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0: [空白]
-10: 10代以下  
-20: 20代  
-30: 30代  
-40: 40代  
-50: 50代  
-60: 60代  
-70: 70代以上</t>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ダイイカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ダイイジョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -165,12 +123,1380 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・posts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;140桁</t>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0~5, 0.1刻み</t>
+    <rPh sb="8" eb="9">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>場所(店名)</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お店へのコメント</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価(★)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいねの数</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usersid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postsid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYYMMDD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shopid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shopname</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HotPepperのURL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オススメ利用シーン</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>recscene</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 : ブレックファスト
+2 : ランチ
+3 : ディナー
+4 : カフェ
+5 : テイクアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>APIキー</t>
+  </si>
+  <si>
+    <t>APIを利用するために割り当てられたキーを設定します。</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>お店ID</t>
+  </si>
+  <si>
+    <t>お店に割り当てられた番号で検索します。</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>(例) J999999999</t>
+  </si>
+  <si>
+    <t>20個まで指定可。*2</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>掲載店名</t>
+  </si>
+  <si>
+    <t>お店の名前で検索(部分一致)します。</t>
+  </si>
+  <si>
+    <t>name_kana</t>
+  </si>
+  <si>
+    <t>掲載店名かな</t>
+  </si>
+  <si>
+    <t>お店の読みかなで検索(部分一致)します。</t>
+  </si>
+  <si>
+    <t>name_any</t>
+  </si>
+  <si>
+    <t>掲載店名 OR かな</t>
+  </si>
+  <si>
+    <t>お店の名前または読みかな両方をOR検索(部分一致)します。</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>お店の電話番号で検索します。半角数字(ハイフンなし)</t>
+  </si>
+  <si>
+    <t>(例) 035550000</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>お店の住所で検索(部分一致)します。</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>特集</t>
+  </si>
+  <si>
+    <t>特集コードをANDで絞り込みができます。</t>
+  </si>
+  <si>
+    <t>特集コードは特集マスタAPI参照。</t>
+  </si>
+  <si>
+    <t>複数指定可能*2</t>
+  </si>
+  <si>
+    <t>LT0086</t>
+  </si>
+  <si>
+    <t>special_or</t>
+  </si>
+  <si>
+    <t>特集コードをORで絞り込みができます。</t>
+  </si>
+  <si>
+    <t>LT0086,LT0045</t>
+  </si>
+  <si>
+    <t>special_category</t>
+  </si>
+  <si>
+    <t>特集カテゴリ</t>
+  </si>
+  <si>
+    <t>特集カテゴリコードをANDで絞り込みができます。</t>
+  </si>
+  <si>
+    <t>特集カテゴリコードは特集カテゴリマスタAPI参照。</t>
+  </si>
+  <si>
+    <t>SPD1</t>
+  </si>
+  <si>
+    <t>special_category_or</t>
+  </si>
+  <si>
+    <t>特集カテゴリコードをORで絞り込みができます。</t>
+  </si>
+  <si>
+    <t>SPD1,SPD3</t>
+  </si>
+  <si>
+    <t>large_service_area</t>
+  </si>
+  <si>
+    <t>大サービスエリアコード</t>
+  </si>
+  <si>
+    <t>エリアに割り当てられたコード番号で検索します。指定できるコード番号はエリアマスタAPIを参照。</t>
+  </si>
+  <si>
+    <t>service_area</t>
+  </si>
+  <si>
+    <t>サービスエリアコード</t>
+  </si>
+  <si>
+    <t>3個まで指定可。*2</t>
+  </si>
+  <si>
+    <t>large_area</t>
+  </si>
+  <si>
+    <t>大エリアコード</t>
+  </si>
+  <si>
+    <t>middle_area</t>
+  </si>
+  <si>
+    <t>中エリアコード</t>
+  </si>
+  <si>
+    <t>5個まで指定可。*2</t>
+  </si>
+  <si>
+    <t>small_area</t>
+  </si>
+  <si>
+    <t>小エリアコード</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>キーワード</t>
+  </si>
+  <si>
+    <t>店名かな、店名、住所、駅名、お店ジャンルキャッチ、キャッチのフリーワード検索(部分一致)が可能です。文字コードはUTF8。半角スペース区切りの文字列を渡すことでAND検索になる。複数指定可能*2</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>緯度</t>
+  </si>
+  <si>
+    <t>ある地点からの範囲内のお店の検索を行う場合の緯度です。</t>
+  </si>
+  <si>
+    <t>(例) 35.669220</t>
+  </si>
+  <si>
+    <t>経度</t>
+  </si>
+  <si>
+    <t>ある地点からの範囲内のお店の検索を行う場合の経度です。</t>
+  </si>
+  <si>
+    <t>(例) 139.761457</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>検索範囲</t>
+  </si>
+  <si>
+    <t>ある地点からの範囲内のお店の検索を行う場合の範囲を5段階で指定できます。たとえば300m以内の検索ならrange=1を指定します</t>
+  </si>
+  <si>
+    <t>1: 300m</t>
+  </si>
+  <si>
+    <t>2: 500m</t>
+  </si>
+  <si>
+    <t>3: 1000m (初期値)</t>
+  </si>
+  <si>
+    <t>4: 2000m</t>
+  </si>
+  <si>
+    <t>5: 3000m</t>
+  </si>
+  <si>
+    <t>(例) 1</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>測地系</t>
+  </si>
+  <si>
+    <t>緯度・経度の測地系を指定できます。world: 世界測地系、tokyo: 旧日本測地系。初期値は world。</t>
+  </si>
+  <si>
+    <t>(例) world</t>
+  </si>
+  <si>
+    <t>ktai_coupon</t>
+  </si>
+  <si>
+    <t>携帯クーポン掲載</t>
+  </si>
+  <si>
+    <t>携帯クーポンの有無で絞り込み条件を指定します。</t>
+  </si>
+  <si>
+    <t>1：携帯クーポンなし</t>
+  </si>
+  <si>
+    <t>0：携帯クーポンあり</t>
+  </si>
+  <si>
+    <t>指定なし：絞り込みなし</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>お店ジャンルコード</t>
+  </si>
+  <si>
+    <t>お店のジャンル(サブジャンル含む)で絞込むことができます。指定できるコードについてはジャンルマスタAPI参照</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>検索用ディナー予算コード</t>
+  </si>
+  <si>
+    <t>ディナー予算で絞り込むことができます。指定できるコードについてはディナー予算マスタAPI参照</t>
+  </si>
+  <si>
+    <t>2個まで指定可。*2</t>
+  </si>
+  <si>
+    <t>party_capacity</t>
+  </si>
+  <si>
+    <t>宴会収容人数</t>
+  </si>
+  <si>
+    <t>宴会収容人数で絞り込むことができます。指定数より大きな収容人数のお店を検索します</t>
+  </si>
+  <si>
+    <t>(例) 50</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>WiFi 有無</t>
+  </si>
+  <si>
+    <t>WiFi 経由によるインターネット利用が可能なお店を絞り込みます。</t>
+  </si>
+  <si>
+    <t>0:絞り込まない（初期値）</t>
+  </si>
+  <si>
+    <t>1:絞り込む</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>ウェディング二次会等</t>
+  </si>
+  <si>
+    <t>ウェディング・二次会等のお問い合わせが可能なお店を絞り込みます。</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>コースあり</t>
+  </si>
+  <si>
+    <t>「コースあり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>free_drink</t>
+  </si>
+  <si>
+    <t>飲み放題</t>
+  </si>
+  <si>
+    <t>「飲み放題」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>free_food</t>
+  </si>
+  <si>
+    <t>食べ放題</t>
+  </si>
+  <si>
+    <t>「食べ放題」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>private_room</t>
+  </si>
+  <si>
+    <t>個室あり</t>
+  </si>
+  <si>
+    <t>「個室あり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>horigotatsu</t>
+  </si>
+  <si>
+    <t>掘りごたつあり</t>
+  </si>
+  <si>
+    <t>「掘りごたつあり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>tatami</t>
+  </si>
+  <si>
+    <t>座敷あり</t>
+  </si>
+  <si>
+    <t>「座敷あり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>cocktail</t>
+  </si>
+  <si>
+    <t>カクテル充実</t>
+  </si>
+  <si>
+    <t>「カクテル充実」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>shochu</t>
+  </si>
+  <si>
+    <t>焼酎充実</t>
+  </si>
+  <si>
+    <t>「焼酎充実」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>sake</t>
+  </si>
+  <si>
+    <t>日本酒充実</t>
+  </si>
+  <si>
+    <t>「日本酒充実」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>ワイン充実</t>
+  </si>
+  <si>
+    <t>「ワイン充実」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>カード可</t>
+  </si>
+  <si>
+    <t>「カード可」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>non_smoking</t>
+  </si>
+  <si>
+    <t>禁煙席</t>
+  </si>
+  <si>
+    <t>「禁煙席」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>charter</t>
+  </si>
+  <si>
+    <t>貸切</t>
+  </si>
+  <si>
+    <t>「貸切可」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>ktai</t>
+  </si>
+  <si>
+    <t>携帯電話OK</t>
+  </si>
+  <si>
+    <t>「携帯電話OK」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>駐車場あり</t>
+  </si>
+  <si>
+    <t>「駐車場あり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>barrier_free</t>
+  </si>
+  <si>
+    <t>バリアフリー</t>
+  </si>
+  <si>
+    <t>「バリアフリー」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>sommelier</t>
+  </si>
+  <si>
+    <t>ソムリエがいる</t>
+  </si>
+  <si>
+    <t>「ソムリエがいる」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>night_view</t>
+  </si>
+  <si>
+    <t>夜景がキレイ</t>
+  </si>
+  <si>
+    <t>「夜景がキレイ」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>open_air</t>
+  </si>
+  <si>
+    <t>オープンエア</t>
+  </si>
+  <si>
+    <t>「オープンエア」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>ライブ・ショーあり</t>
+  </si>
+  <si>
+    <t>「ライブ・ショーあり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>エンタメ設備</t>
+  </si>
+  <si>
+    <t>「エンタメ設備」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>karaoke</t>
+  </si>
+  <si>
+    <t>カラオケあり</t>
+  </si>
+  <si>
+    <t>「カラオケあり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>バンド演奏可</t>
+  </si>
+  <si>
+    <t>「バンド演奏可」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>TV・プロジェクター</t>
+  </si>
+  <si>
+    <t>「TV・プロジェクター」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>ランチあり</t>
+  </si>
+  <si>
+    <t>「ランチあり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>midnight</t>
+  </si>
+  <si>
+    <t>23時以降も営業</t>
+  </si>
+  <si>
+    <t>「23時以降も営業」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>midnight_meal</t>
+  </si>
+  <si>
+    <t>23時以降食事OK</t>
+  </si>
+  <si>
+    <t>「23時以降食事OK」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>英語メニューあり</t>
+  </si>
+  <si>
+    <t>「英語メニューあり」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>ペット可</t>
+  </si>
+  <si>
+    <t>「ペット可」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>お子様連れOK</t>
+  </si>
+  <si>
+    <t>「お子様連れOK」という条件で絞り込むかどうかを指定します。</t>
+  </si>
+  <si>
+    <t>credit_card</t>
+  </si>
+  <si>
+    <t>クレジットカード</t>
+  </si>
+  <si>
+    <t>クレジットカードの種別ごとに絞り込むことができます。指定できるコードについてはクレジットカードマスタAPI参照。(2008/02/08追加)</t>
+  </si>
+  <si>
+    <t>複数指定可</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>出力タイプ</t>
+  </si>
+  <si>
+    <t>レスポンス項目の項目数を指定できます。</t>
+  </si>
+  <si>
+    <t>credit_card、specialを指定することで、クレジットカード、特集をレスポンスに付加できます。 +でつないで指定することで、複数指定が可能です。 例:type=credit_card+specialと指定することで、クレジットカードと特集両方をレスポンスに付加可能です。</t>
+  </si>
+  <si>
+    <t>lite:主要項目のみ</t>
+  </si>
+  <si>
+    <t>credit_card:クレジットカードをレスポンスに付加</t>
+  </si>
+  <si>
+    <t>special:特集をレスポンスに付加</t>
+  </si>
+  <si>
+    <t>指定なし:クレジットカード、特集以外をすべて出力（初期値）</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>ソート順</t>
+  </si>
+  <si>
+    <t>検索結果の並び順を指定します。おススメ順は定期的に更新されます。</t>
+  </si>
+  <si>
+    <t>※ 位置検索の場合、「4:オススメ順」以外は指定に関係なく、強制的に距離順でソートされます。</t>
+  </si>
+  <si>
+    <t>1:店名かな順</t>
+  </si>
+  <si>
+    <t>2:ジャンルコード順</t>
+  </si>
+  <si>
+    <t>3:小エリアコード順</t>
+  </si>
+  <si>
+    <t>4:おススメ順</t>
+  </si>
+  <si>
+    <t>初期値はおススメ順。位置から検索を行った場合は距離順</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>検索の開始位置</t>
+  </si>
+  <si>
+    <t>検索結果の何件目から出力するかを指定します。</t>
+  </si>
+  <si>
+    <t>初期値:1</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>1ページあたりの取得数</t>
+  </si>
+  <si>
+    <t>検索結果の最大出力データ数を指定します。</t>
+  </si>
+  <si>
+    <t>初期値：10、最小1、最大100</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>レスポンス形式</t>
+  </si>
+  <si>
+    <t>レスポンスをXMLかJSONかを指定します。</t>
+  </si>
+  <si>
+    <t>初期値:xml。xml または json。</t>
+  </si>
+  <si>
+    <t>レスポンス項目の項目数を指定できます。
+liteを指定すると、主要項目のみ出力されます。出力項目はレスポンスフィールドを参照してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■APIキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>b8974cdcc1dc81b4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>lite*1</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>api_version</t>
+  </si>
+  <si>
+    <t>APIのバージョン</t>
+  </si>
+  <si>
+    <t>results_available</t>
+  </si>
+  <si>
+    <t>クエリー条件にマッチする、検索結果の全件数</t>
+  </si>
+  <si>
+    <t>results_returned</t>
+  </si>
+  <si>
+    <t>このＸＭＬに含まれる検索結果の件数</t>
+  </si>
+  <si>
+    <t>results_start</t>
+  </si>
+  <si>
+    <t>検索結果の開始位置</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>[複数要素]</t>
+  </si>
+  <si>
+    <t>J999999999</t>
+  </si>
+  <si>
+    <t>居酒屋 ホットペッパー</t>
+  </si>
+  <si>
+    <t>logo_image</t>
+  </si>
+  <si>
+    <t>ロゴ画像</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>いざかや　ほっとぺっぱー</t>
+  </si>
+  <si>
+    <t>東京都中央区銀座８－４－１７</t>
+  </si>
+  <si>
+    <t>station_name</t>
+  </si>
+  <si>
+    <t>最寄駅名</t>
+  </si>
+  <si>
+    <t>銀座</t>
+  </si>
+  <si>
+    <t>携帯用クーポン掲載</t>
+  </si>
+  <si>
+    <t>0:あり、1:なし</t>
+  </si>
+  <si>
+    <t>大サービスエリア</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>SS10</t>
+  </si>
+  <si>
+    <t>大サービスエリア名</t>
+  </si>
+  <si>
+    <t>関東</t>
+  </si>
+  <si>
+    <t>サービスエリア</t>
+  </si>
+  <si>
+    <t>SA11</t>
+  </si>
+  <si>
+    <t>サービスエリア名</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>大エリア</t>
+  </si>
+  <si>
+    <t>Z011</t>
+  </si>
+  <si>
+    <t>大エリア名</t>
+  </si>
+  <si>
+    <t>中エリア</t>
+  </si>
+  <si>
+    <t>Y005</t>
+  </si>
+  <si>
+    <t>中エリア名</t>
+  </si>
+  <si>
+    <t>銀座・有楽町・新橋・築地・月島</t>
+  </si>
+  <si>
+    <t>小エリア</t>
+  </si>
+  <si>
+    <t>小エリアCD</t>
+  </si>
+  <si>
+    <t>X010</t>
+  </si>
+  <si>
+    <t>小エリア名</t>
+  </si>
+  <si>
+    <t>銀座5～8丁目</t>
+  </si>
+  <si>
+    <t>緯度（測地系は検索時に指定したもの）</t>
+  </si>
+  <si>
+    <t>経度（測地系は検索時に指定したもの）</t>
+  </si>
+  <si>
+    <t>お店ジャンル</t>
+  </si>
+  <si>
+    <t>G001</t>
+  </si>
+  <si>
+    <t>お店ジャンル名</t>
+  </si>
+  <si>
+    <t>居酒屋</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>お店ジャンルキャッチ</t>
+  </si>
+  <si>
+    <t>一口餃子専門店</t>
+  </si>
+  <si>
+    <t>sub_genre</t>
+  </si>
+  <si>
+    <t>お店サブジャンル</t>
+  </si>
+  <si>
+    <t>マスタはジャンルと同じです。</t>
+  </si>
+  <si>
+    <t>お店サブジャンルコード</t>
+  </si>
+  <si>
+    <t>お店サブジャンル名</t>
+  </si>
+  <si>
+    <t>ディナー予算</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>検索用ディナー予算</t>
+  </si>
+  <si>
+    <t>～1000</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>平均ディナー予算</t>
+  </si>
+  <si>
+    <t>「900円」「フリー2500円　宴会3500円」など</t>
+  </si>
+  <si>
+    <t>budget_memo</t>
+  </si>
+  <si>
+    <t>料金備考</t>
+  </si>
+  <si>
+    <t>お通し代300円</t>
+  </si>
+  <si>
+    <t>お店キャッチ</t>
+  </si>
+  <si>
+    <t>TVの口コミランキングで堂々1位に輝いた一口餃子専門店！！</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>総席数</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>交通アクセス</t>
+  </si>
+  <si>
+    <t>銀座駅A2出口でて､みゆき通り右折､徒歩1分</t>
+  </si>
+  <si>
+    <t>mobile_access</t>
+  </si>
+  <si>
+    <t>携帯用交通アクセス</t>
+  </si>
+  <si>
+    <t>銀座一丁目駅10番出口徒歩3分</t>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
+  <si>
+    <t>店舗URL</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>PC向けURL</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>PC向け</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>店舗トップ写真(大）画像URL</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>店舗トップ写真(中）画像URL</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>店舗トップ写真(小）画像URL</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>携帯向け</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>営業時間</t>
+  </si>
+  <si>
+    <t>月～金／11：30～14：00</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>定休日</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>最大宴会収容人数</t>
+  </si>
+  <si>
+    <t>あり、なし、未確認 のいずれか</t>
+  </si>
+  <si>
+    <t>ウェディング･二次会</t>
+  </si>
+  <si>
+    <t>応相談</t>
+  </si>
+  <si>
+    <t>コース</t>
+  </si>
+  <si>
+    <t>あり</t>
+  </si>
+  <si>
+    <t>個室</t>
+  </si>
+  <si>
+    <t>掘りごたつ</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>座敷</t>
+  </si>
+  <si>
+    <t>利用可</t>
+  </si>
+  <si>
+    <t>一部禁煙</t>
+  </si>
+  <si>
+    <t>貸切可</t>
+  </si>
+  <si>
+    <t>貸切不可</t>
+  </si>
+  <si>
+    <t>つながりにくい</t>
+  </si>
+  <si>
+    <t>駐車場</t>
+  </si>
+  <si>
+    <t>other_memo</t>
+  </si>
+  <si>
+    <t>その他設備</t>
+  </si>
+  <si>
+    <t>プロジェクターあります。</t>
+  </si>
+  <si>
+    <t>ソムリエ</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>ライブ・ショー</t>
+  </si>
+  <si>
+    <t>カラオケ</t>
+  </si>
+  <si>
+    <t>不可</t>
+  </si>
+  <si>
+    <t>英語メニュー</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>お子様連れ</t>
+  </si>
+  <si>
+    <t>お子様連れ歓迎</t>
+  </si>
+  <si>
+    <t>ランチ</t>
+  </si>
+  <si>
+    <t>営業している</t>
+  </si>
+  <si>
+    <t>shop_detail_memo</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>プロジェクター利用可</t>
+  </si>
+  <si>
+    <t>coupon_urls</t>
+  </si>
+  <si>
+    <t>クーポンURL</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>スマートフォン向けURL</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type=liteの場合、〇の項目のみを返却</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿年月日</t>
+    <rPh sb="0" eb="5">
+      <t>トウコウネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYYMMDD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postdate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■API一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グルメサーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大エリアマスタ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://webservice.recruit.co.jp/hotpepper/gourmet/v1/?key=b8974cdcc1dc81b4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://webservice.recruit.co.jp/hotpepper/large_area/v1/?key=b8974cdcc1dc81b4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中エリアマスタ</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://webservice.recruit.co.jp/hotpepper/middle_area/v1/?key=b8974cdcc1dc81b4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小エリアマスタ</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://webservice.recruit.co.jp/hotpepper/small_area/v1/?key=b8974cdcc1dc81b4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■グルメサーチAPI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索クエリ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レスポンスフィールド</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +1530,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +1589,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0080CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,23 +1656,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,7 +1714,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -352,13 +1723,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +1737,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,124 +2091,3088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDEAD82-C191-4F46-9202-E409A73E883E}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="5" width="8.6640625" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="19" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="147.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="26"/>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1830AE-8C58-4348-890E-BC838FEC532C}">
+  <dimension ref="A1:J127"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="21.9140625" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20"/>
+      <c r="C3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="20"/>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20"/>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" s="19">
+        <v>47</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="19">
+        <v>47</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="G20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="G22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="G25" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="G26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20">
+      <c r="A30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="G30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20">
+      <c r="A31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="120" customHeight="1">
+      <c r="A35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="G35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="40" customHeight="1">
+      <c r="A36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="40" customHeight="1">
+      <c r="A37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="19">
+        <v>35.660818345400003</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" s="19">
+        <v>139.7754267645</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="60" customHeight="1">
+      <c r="A44" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20" customHeight="1">
+      <c r="A45" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="20" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="20" customHeight="1">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="70" customHeight="1">
+      <c r="A48" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="60" customHeight="1">
+      <c r="A49" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="50" customHeight="1">
+      <c r="A50" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="22" customHeight="1">
+      <c r="A51" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="20">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="22" customHeight="1">
+      <c r="A53" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="I54" s="19">
+        <v>300</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="22" customHeight="1">
+      <c r="A55" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="20">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="22" customHeight="1">
+      <c r="A57" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="22" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="22" customHeight="1">
+      <c r="A61" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="22" customHeight="1">
+      <c r="A63" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="22" customHeight="1">
+      <c r="A65" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="22" customHeight="1">
+      <c r="A67" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="22" customHeight="1">
+      <c r="A69" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="I69" s="19">
+        <v>185</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="20">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="22" customHeight="1">
+      <c r="A71" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="22" customHeight="1">
+      <c r="A73" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="22" customHeight="1">
+      <c r="A75" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="22" customHeight="1">
+      <c r="A77" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="22" customHeight="1">
+      <c r="A79" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="22" customHeight="1">
+      <c r="A81" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="22" customHeight="1">
+      <c r="A83" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="20">
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="22" customHeight="1">
+      <c r="A85" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="22" customHeight="1">
+      <c r="A87" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J87" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J88" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="22" customHeight="1">
+      <c r="A89" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="22" customHeight="1">
+      <c r="A91" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="22" customHeight="1">
+      <c r="A93" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="22" customHeight="1">
+      <c r="A95" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="22" customHeight="1">
+      <c r="A97" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="29"/>
+      <c r="E97" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J97" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="22" customHeight="1">
+      <c r="A99" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="49.5" customHeight="1">
+      <c r="A101" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J101" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="22" customHeight="1">
+      <c r="A103" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="29"/>
+      <c r="E103" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="22" customHeight="1">
+      <c r="A105" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="22" customHeight="1">
+      <c r="A107" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="22" customHeight="1">
+      <c r="A109" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="29"/>
+      <c r="E109" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="22" customHeight="1">
+      <c r="A111" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="29"/>
+      <c r="E111" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="22" customHeight="1">
+      <c r="A113" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" s="29"/>
+      <c r="E113" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="40">
+      <c r="A115" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="29"/>
+      <c r="E116" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="40">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D117" s="29"/>
+      <c r="E117" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="60">
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D118" s="29"/>
+      <c r="E118" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="60">
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119" s="29"/>
+      <c r="E119" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="20">
+      <c r="A120" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="20">
+      <c r="A125" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="20">
+      <c r="A126" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="20">
+      <c r="A127" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="167">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>